--- a/Aarsløpskombinasjoner.xlsx
+++ b/Aarsløpskombinasjoner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eirik\OneDrive - Universitetet i Oslo\Kuben\KubenRobotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4B1B27-3577-41FB-B8F8-F985EC564980}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0824234-51E9-44D2-B10F-05BCDBACF2BF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7680" xr2:uid="{10706AB7-5D02-498E-94B5-BB79505E84DF}"/>
   </bookViews>
@@ -212,20 +212,11 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,6 +235,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,1021 +561,1024 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AE6450-997E-46A1-8D65-0D14D911505C}">
   <dimension ref="A4:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="8" width="15.77734375" style="2" customWidth="1"/>
+    <col min="5" max="8" width="15.77734375" style="1" customWidth="1"/>
     <col min="9" max="15" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>4</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2">
-        <v>5</v>
-      </c>
-      <c r="L7" s="2"/>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>3</v>
-      </c>
-      <c r="K8" s="2">
-        <v>3</v>
-      </c>
-      <c r="L8" s="2"/>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2</v>
-      </c>
-      <c r="L9" s="2"/>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>2</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2</v>
-      </c>
-      <c r="L10" s="2"/>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>5</v>
-      </c>
-      <c r="J12" s="2">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2">
-        <v>5</v>
-      </c>
-      <c r="L12" s="2"/>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
-        <v>5</v>
-      </c>
-      <c r="J13" s="2">
-        <v>5</v>
-      </c>
-      <c r="K13" s="2">
-        <v>5</v>
-      </c>
-      <c r="L13" s="2"/>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>6</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>6</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>6</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>6</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>6</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>6</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>6</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="8">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>3</v>
-      </c>
-      <c r="H15" s="8">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>3</v>
-      </c>
-      <c r="J15" s="2">
-        <v>3</v>
-      </c>
-      <c r="K15" s="2">
-        <v>3</v>
-      </c>
-      <c r="L15" s="2"/>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E16" s="2">
-        <f>SUM(E6:E15)</f>
+      <c r="E16" s="1">
+        <f t="shared" ref="E16:K16" si="0">SUM(E6:E15)</f>
         <v>34</v>
       </c>
-      <c r="F16" s="2">
-        <f>SUM(F6:F15)</f>
-        <v>35</v>
-      </c>
-      <c r="G16" s="2">
-        <f>SUM(G6:G15)</f>
-        <v>35</v>
-      </c>
-      <c r="H16" s="2">
-        <f>SUM(H6:H15)</f>
-        <v>35</v>
-      </c>
-      <c r="I16" s="2">
-        <f>SUM(I6:I15)</f>
-        <v>35</v>
-      </c>
-      <c r="J16" s="2">
-        <f>SUM(J6:J15)</f>
-        <v>35</v>
-      </c>
-      <c r="K16" s="2">
-        <f>SUM(K6:K15)</f>
-        <v>35</v>
-      </c>
-      <c r="L16" s="2"/>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>4</v>
       </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
         <v>4</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>4</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>4</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
-        <v>5</v>
-      </c>
-      <c r="J20" s="2">
-        <v>5</v>
-      </c>
-      <c r="K20" s="2">
-        <v>5</v>
-      </c>
-      <c r="L20" s="2"/>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>2</v>
-      </c>
-      <c r="I21" s="2">
-        <v>2</v>
-      </c>
-      <c r="J21" s="2">
-        <v>2</v>
-      </c>
-      <c r="K21" s="2">
-        <v>2</v>
-      </c>
-      <c r="L21" s="2"/>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3</v>
-      </c>
-      <c r="G22" s="2">
-        <v>3</v>
-      </c>
-      <c r="H22" s="2">
-        <v>3</v>
-      </c>
-      <c r="I22" s="2">
-        <v>3</v>
-      </c>
-      <c r="J22" s="2">
-        <v>3</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2</v>
-      </c>
-      <c r="J23" s="2">
-        <v>2</v>
-      </c>
-      <c r="K23" s="2">
-        <v>2</v>
-      </c>
-      <c r="L23" s="2"/>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="7">
-        <v>5</v>
-      </c>
-      <c r="G24" s="7">
-        <v>5</v>
-      </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
-      <c r="I24" s="7">
-        <v>5</v>
-      </c>
-      <c r="J24" s="7">
-        <v>5</v>
-      </c>
-      <c r="K24" s="7">
-        <v>5</v>
-      </c>
-      <c r="L24" s="2"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>12</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>12</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>12</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>12</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="4">
         <v>9</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="5">
         <v>9</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>12</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2">
-        <v>5</v>
-      </c>
-      <c r="I27" s="2">
-        <v>5</v>
-      </c>
-      <c r="J27" s="2">
-        <v>5</v>
-      </c>
-      <c r="K27" s="2">
-        <v>5</v>
-      </c>
-      <c r="L27" s="2"/>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5</v>
+      </c>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E29" s="2">
-        <f>SUM(E19:E28)</f>
-        <v>33</v>
-      </c>
-      <c r="F29" s="2">
-        <f>SUM(F19:F28)</f>
+      <c r="E29" s="1">
+        <f t="shared" ref="E29:K29" si="1">SUM(E19:E28)</f>
+        <v>35</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="G29" s="2">
-        <f>SUM(G19:G28)</f>
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="H29" s="2">
-        <f>SUM(H19:H28)</f>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="I29" s="2">
-        <f>SUM(I19:I28)</f>
-        <v>35</v>
-      </c>
-      <c r="J29" s="2">
-        <f>SUM(J19:J28)</f>
-        <v>35</v>
-      </c>
-      <c r="K29" s="2">
-        <f>SUM(K19:K28)</f>
-        <v>35</v>
-      </c>
-      <c r="L29" s="2"/>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="4">
         <v>6</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="5">
         <v>10</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>8</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>7</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="4">
         <v>6</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="4">
         <v>6</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="4">
         <v>6</v>
       </c>
-      <c r="L33" s="2"/>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="2">
-        <v>5</v>
-      </c>
-      <c r="F34" s="2">
-        <v>5</v>
-      </c>
-      <c r="G34" s="2">
-        <v>5</v>
-      </c>
-      <c r="H34" s="2">
-        <v>5</v>
-      </c>
-      <c r="I34" s="2">
-        <v>5</v>
-      </c>
-      <c r="J34" s="2">
-        <v>5</v>
-      </c>
-      <c r="K34" s="2">
-        <v>5</v>
-      </c>
-      <c r="L34" s="2"/>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1">
+        <v>5</v>
+      </c>
+      <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="2">
-        <v>5</v>
-      </c>
-      <c r="F35" s="2">
-        <v>5</v>
-      </c>
-      <c r="G35" s="2">
-        <v>5</v>
-      </c>
-      <c r="H35" s="2">
-        <v>5</v>
-      </c>
-      <c r="I35" s="2">
-        <v>5</v>
-      </c>
-      <c r="J35" s="2">
-        <v>5</v>
-      </c>
-      <c r="K35" s="2">
-        <v>5</v>
-      </c>
-      <c r="L35" s="2"/>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1">
+        <v>5</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5</v>
+      </c>
+      <c r="K35" s="1">
+        <v>5</v>
+      </c>
+      <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="2">
-        <v>3</v>
-      </c>
-      <c r="F36" s="2">
-        <v>3</v>
-      </c>
-      <c r="G36" s="2">
-        <v>3</v>
-      </c>
-      <c r="H36" s="2">
-        <v>3</v>
-      </c>
-      <c r="I36" s="2">
-        <v>3</v>
-      </c>
-      <c r="J36" s="2">
-        <v>3</v>
-      </c>
-      <c r="K36" s="2">
-        <v>3</v>
-      </c>
-      <c r="L36" s="2"/>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>3</v>
+      </c>
+      <c r="K36" s="1">
+        <v>3</v>
+      </c>
+      <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="2">
-        <v>2</v>
-      </c>
-      <c r="F37" s="2">
-        <v>2</v>
-      </c>
-      <c r="G37" s="2">
-        <v>2</v>
-      </c>
-      <c r="H37" s="2">
-        <v>2</v>
-      </c>
-      <c r="I37" s="2">
-        <v>2</v>
-      </c>
-      <c r="J37" s="2">
-        <v>2</v>
-      </c>
-      <c r="K37" s="2">
-        <v>2</v>
-      </c>
-      <c r="L37" s="2"/>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1">
+        <v>3</v>
+      </c>
+      <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="8">
-        <v>5</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="E39" s="5">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="7">
-        <v>5</v>
-      </c>
-      <c r="G40" s="7">
-        <v>5</v>
-      </c>
-      <c r="H40" s="7">
-        <v>5</v>
-      </c>
-      <c r="I40" s="7">
-        <v>5</v>
-      </c>
-      <c r="J40" s="7">
-        <v>5</v>
-      </c>
-      <c r="K40" s="7">
-        <v>5</v>
-      </c>
-      <c r="L40" s="2"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="4">
+        <v>5</v>
+      </c>
+      <c r="G40" s="4">
+        <v>5</v>
+      </c>
+      <c r="H40" s="4">
+        <v>5</v>
+      </c>
+      <c r="I40" s="4">
+        <v>5</v>
+      </c>
+      <c r="J40" s="4">
+        <v>5</v>
+      </c>
+      <c r="K40" s="4">
+        <v>5</v>
+      </c>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="8">
-        <v>5</v>
-      </c>
-      <c r="F42" s="8">
-        <v>5</v>
-      </c>
-      <c r="G42" s="7">
+      <c r="E42" s="4">
+        <v>9</v>
+      </c>
+      <c r="F42" s="5">
+        <v>5</v>
+      </c>
+      <c r="G42" s="4">
         <v>7</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="4">
         <v>8</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <v>6</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>6</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>6</v>
       </c>
-      <c r="L42" s="2"/>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="7">
-        <v>3</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="I43" s="4">
+        <v>3</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2">
-        <v>3</v>
-      </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1">
+        <v>3</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E45" s="2">
-        <f>SUM(E33:E44)</f>
-        <v>31</v>
-      </c>
-      <c r="F45" s="2">
-        <f>SUM(F33:F44)</f>
-        <v>35</v>
-      </c>
-      <c r="G45" s="2">
-        <f>SUM(G33:G44)</f>
-        <v>35</v>
-      </c>
-      <c r="H45" s="2">
-        <f>SUM(H33:H44)</f>
-        <v>35</v>
-      </c>
-      <c r="I45" s="2">
-        <f>SUM(I33:I44)</f>
-        <v>35</v>
-      </c>
-      <c r="J45" s="2">
-        <f>SUM(J33:J44)</f>
-        <v>35</v>
-      </c>
-      <c r="K45" s="2">
-        <f>SUM(K33:K44)</f>
-        <v>35</v>
-      </c>
-      <c r="L45" s="2"/>
+      <c r="E45" s="1">
+        <f t="shared" ref="E45:K45" si="2">SUM(E33:E44)</f>
+        <v>35</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="L45" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L48" s="11"/>
+      <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="11"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="8"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="11"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="8"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="11"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="8"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="11"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="8"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="11"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="11"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="11"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="8"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="7">
         <v>7</v>
       </c>
-      <c r="F57" s="10">
-        <v>5</v>
-      </c>
-      <c r="G57" s="10">
-        <v>2</v>
-      </c>
-      <c r="H57" s="10">
-        <v>3</v>
-      </c>
-      <c r="I57" s="10">
+      <c r="F57" s="7">
+        <v>5</v>
+      </c>
+      <c r="G57" s="7">
+        <v>2</v>
+      </c>
+      <c r="H57" s="7">
+        <v>3</v>
+      </c>
+      <c r="I57" s="7">
         <v>1</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J57" s="7">
         <v>6</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K57" s="7">
         <v>4</v>
       </c>
     </row>
